--- a/Proyectos/Viaticos/03. Desarrollo/Viaticos-PlanPruebas.xlsx
+++ b/Proyectos/Viaticos/03. Desarrollo/Viaticos-PlanPruebas.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="PlanPruebas" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Requerimiento</t>
   </si>
   <si>
-    <t>Nombre del Proyecto:</t>
-  </si>
-  <si>
-    <t>Tipo Prueba</t>
-  </si>
-  <si>
     <t>Descripción de la Prueba</t>
   </si>
   <si>
@@ -130,6 +124,21 @@
   </si>
   <si>
     <t>Registrar cambios en el estado de viáticos y gastos.</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>Confirmar usuario y recuperar password.</t>
+  </si>
+  <si>
+    <t>Agregar las opciones de confirmación de usuarios y la de recuperar password</t>
+  </si>
+  <si>
+    <t>Se considera necesario, realizar la confirmación del usuario, como parte de la solicitud de cambio a fin de proporcionar mayor seguridad al sistema</t>
+  </si>
+  <si>
+    <t>Como parte de la solicitud de cambio, se agregará la opción de recuperar el password, dando así mayor seguridad a la aplicación</t>
   </si>
 </sst>
 </file>
@@ -268,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,7 +301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -302,9 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,6 +320,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -338,13 +352,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1119187</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>3610695</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15264</xdr:rowOff>
@@ -664,348 +678,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.5703125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="8"/>
+    <col min="3" max="3" width="24.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="8" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.5703125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+    <row r="1" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="5" spans="2:11" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="2:12" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15">
+        <v>42467</v>
+      </c>
+      <c r="G7" s="15">
+        <v>42468</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15">
+        <v>42467</v>
+      </c>
+      <c r="G8" s="15">
+        <v>42468</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="15">
+        <v>42467</v>
+      </c>
+      <c r="G9" s="15">
+        <v>42468</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15">
+        <v>42468</v>
+      </c>
+      <c r="G10" s="15">
+        <v>42471</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="C11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="15">
+        <v>42468</v>
+      </c>
+      <c r="G11" s="15">
+        <v>42471</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="C12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="C13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="15">
+        <v>42468</v>
+      </c>
+      <c r="G13" s="15">
+        <v>42471</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
         <v>9</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16">
+        <v>42466</v>
+      </c>
+      <c r="G14" s="16">
+        <v>42468</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="17">
-        <v>42467</v>
-      </c>
-      <c r="H7" s="17">
-        <v>42468</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="17">
-        <v>42467</v>
-      </c>
-      <c r="H8" s="17">
-        <v>42468</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="17">
-        <v>42467</v>
-      </c>
-      <c r="H9" s="17">
-        <v>42468</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="17">
-        <v>42468</v>
-      </c>
-      <c r="H10" s="17">
-        <v>42471</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="17">
-        <v>42468</v>
-      </c>
-      <c r="H11" s="17">
-        <v>42471</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
+      <c r="J14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="17">
-        <v>42468</v>
-      </c>
-      <c r="H13" s="17">
-        <v>42471</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
+      <c r="C15"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1015,10 +1038,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1028,23 +1050,15 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C11 C14 C17 C20">
-      <formula1>"Sistema, Integración"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K8 K11:K13 K16:K18">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J18 J6:J14">
       <formula1>"Aprobado,Rechazado,En Proceso"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Unitarias,Sistema, Integración"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1054,19 +1068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100817E182D34AD254BA6F0F196E74358A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="347decb221df9d592b2aae19769b31cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b004d877ca112f136821ba8115f64728">
     <xsd:element name="properties">
@@ -1115,6 +1116,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1122,22 +1136,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{422A1C1D-757B-40EC-8DCF-6B03467616EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A0BA0D-EB78-4A30-8F1E-2355421FFA94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7226F6D-30DB-4DD7-9194-E0A1470F7ED0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1152,16 +1150,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A0BA0D-EB78-4A30-8F1E-2355421FFA94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{422A1C1D-757B-40EC-8DCF-6B03467616EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD56E88-2DE2-4D0C-B13B-E9AD00E5579C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Proyectos/Viaticos/03. Desarrollo/Viaticos-PlanPruebas.xlsx
+++ b/Proyectos/Viaticos/03. Desarrollo/Viaticos-PlanPruebas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Estatus</t>
   </si>
   <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>Viáticos</t>
   </si>
   <si>
@@ -135,10 +132,46 @@
     <t>Agregar las opciones de confirmación de usuarios y la de recuperar password</t>
   </si>
   <si>
-    <t>Se considera necesario, realizar la confirmación del usuario, como parte de la solicitud de cambio a fin de proporcionar mayor seguridad al sistema</t>
-  </si>
-  <si>
     <t>Como parte de la solicitud de cambio, se agregará la opción de recuperar el password, dando así mayor seguridad a la aplicación</t>
+  </si>
+  <si>
+    <t>Validar la correcta creación broker</t>
+  </si>
+  <si>
+    <t>Validar que los usuarios dados de alta como brokers puedan registrar gastos</t>
+  </si>
+  <si>
+    <t>CU7</t>
+  </si>
+  <si>
+    <t>Si se puede obtener el sistema aunque no sea desde la máquina de origen</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>La creación de áreas y proyectos se realizó de manera correcta, muestra la pantalla con los datos ingresados.</t>
+  </si>
+  <si>
+    <t>La creación de usuarios se realizó de manera correcta, envia el correo de confirmación de usuario</t>
+  </si>
+  <si>
+    <t>El registro de la generación de gastos, se realizó de manera correcta, muestra la pantalla con los datos ingresados.</t>
+  </si>
+  <si>
+    <t>La generación de solicitud de acuerdo al usuario, se realizó de manera correcta, muestra la pantalla con los datos ingresados.</t>
+  </si>
+  <si>
+    <t>La generación de reportes de acuerdo al usuario, se realizó de manera correcta, muestra una previsualización del excel que se generará con la información solicitada.</t>
+  </si>
+  <si>
+    <t>Es un sistema responsivo, no generará conflictos.</t>
+  </si>
+  <si>
+    <t>Como parte de la solicitud de cambio, se confirmó que la creación de broker se realizará de manera correcta.</t>
+  </si>
+  <si>
+    <t>El registro de cambio en el estado de los viáticos y gastos se realiza de manera correcta.</t>
   </si>
 </sst>
 </file>
@@ -198,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -273,11 +306,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +374,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +734,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,7 +757,7 @@
     <row r="3" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="11"/>
       <c r="D3" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="18"/>
     </row>
@@ -737,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -745,33 +798,35 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="15">
         <v>42467</v>
@@ -781,13 +836,13 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="99" x14ac:dyDescent="0.3">
@@ -795,13 +850,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="15">
         <v>42467</v>
@@ -811,25 +866,27 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="15">
         <v>42467</v>
@@ -839,25 +896,27 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="15">
         <v>42468</v>
@@ -867,25 +926,27 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="15">
         <v>42468</v>
@@ -895,45 +956,49 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>7</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="15">
         <v>42468</v>
@@ -943,25 +1008,27 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="16">
         <v>42466</v>
@@ -971,26 +1038,44 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="16">
+        <v>42466</v>
+      </c>
+      <c r="G15" s="16">
+        <v>42471</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
@@ -1057,7 +1142,7 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J18 J6:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J18">
       <formula1>"Aprobado,Rechazado,En Proceso"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1068,6 +1153,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100817E182D34AD254BA6F0F196E74358A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="347decb221df9d592b2aae19769b31cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b004d877ca112f136821ba8115f64728">
     <xsd:element name="properties">
@@ -1116,19 +1214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1136,6 +1221,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{422A1C1D-757B-40EC-8DCF-6B03467616EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A0BA0D-EB78-4A30-8F1E-2355421FFA94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7226F6D-30DB-4DD7-9194-E0A1470F7ED0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1146,22 +1247,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A0BA0D-EB78-4A30-8F1E-2355421FFA94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{422A1C1D-757B-40EC-8DCF-6B03467616EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Proyectos/Viaticos/03. Desarrollo/Viaticos-PlanPruebas.xlsx
+++ b/Proyectos/Viaticos/03. Desarrollo/Viaticos-PlanPruebas.xlsx
@@ -123,9 +123,6 @@
     <t>Registrar cambios en el estado de viáticos y gastos.</t>
   </si>
   <si>
-    <t>En Proceso</t>
-  </si>
-  <si>
     <t>Confirmar usuario y recuperar password.</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>El registro de cambio en el estado de los viáticos y gastos se realiza de manera correcta.</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
 </sst>
 </file>
@@ -372,17 +372,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,10 +756,10 @@
     <row r="2" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="11"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="5" spans="2:11" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -811,8 +811,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="21" t="s">
-        <v>41</v>
+      <c r="K6" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="99" x14ac:dyDescent="0.3">
@@ -839,10 +839,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="99" x14ac:dyDescent="0.3">
@@ -869,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="99" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>10</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="99" x14ac:dyDescent="0.3">
@@ -959,10 +959,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -1022,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -1041,24 +1041,24 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="20">
-        <v>10</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="16">
         <v>42466</v>
@@ -1071,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -1153,19 +1153,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100817E182D34AD254BA6F0F196E74358A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="347decb221df9d592b2aae19769b31cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b004d877ca112f136821ba8115f64728">
     <xsd:element name="properties">
@@ -1214,6 +1201,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1221,22 +1221,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{422A1C1D-757B-40EC-8DCF-6B03467616EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A0BA0D-EB78-4A30-8F1E-2355421FFA94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7226F6D-30DB-4DD7-9194-E0A1470F7ED0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1247,6 +1231,22 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A0BA0D-EB78-4A30-8F1E-2355421FFA94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{422A1C1D-757B-40EC-8DCF-6B03467616EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
